--- a/data/trans_orig/IP07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE8CA57-B938-492E-88BC-864361726395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC63D402-A462-41B3-9846-16DE10E51515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{75314808-D6D9-40E5-8781-97EDF3F98938}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE6D4204-77C2-419A-A0EF-0214AC6D0108}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="612">
   <si>
     <t>Menores según salud general percibida por adulto en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -122,1723 +122,1759 @@
     <t>5,58%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según salud general percibida por adulto en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>Menores según salud general percibida por adulto en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>Menores según salud general percibida por adulto en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,78%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según salud general percibida por adulto en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>Menores según salud general percibida por adulto en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>Menores según salud general percibida por adulto en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
   </si>
   <si>
     <t>42,82%</t>
   </si>
   <si>
-    <t>39,38%</t>
+    <t>39,19%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>33,87%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>34,83%</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF38539-5792-441D-8920-165E93EA8683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADCD4E3-C0B0-4FE2-8535-417D4820FBF5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3011,7 +3047,7 @@
         <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>69</v>
@@ -3340,10 +3376,10 @@
         <v>114</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3358,7 +3394,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3367,13 +3403,13 @@
         <v>3318</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3424,13 @@
         <v>21416</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -3403,13 +3439,13 @@
         <v>36247</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -3418,13 +3454,13 @@
         <v>57663</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3475,13 @@
         <v>74646</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
@@ -3454,13 +3490,13 @@
         <v>83134</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>231</v>
@@ -3469,13 +3505,13 @@
         <v>157780</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3526,13 @@
         <v>56815</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -3505,13 +3541,13 @@
         <v>54052</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>165</v>
@@ -3520,13 +3556,13 @@
         <v>110868</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3630,13 @@
         <v>3961</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3615,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -3630,7 +3666,7 @@
         <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3681,13 @@
         <v>21453</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>16</v>
@@ -3660,10 +3696,10 @@
         <v>10373</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>157</v>
@@ -3681,7 +3717,7 @@
         <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3732,13 @@
         <v>142452</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>213</v>
@@ -3711,13 +3747,13 @@
         <v>140905</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>427</v>
@@ -3726,13 +3762,13 @@
         <v>283357</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,13 +3783,13 @@
         <v>343665</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H31" s="7">
         <v>480</v>
@@ -3762,13 +3798,13 @@
         <v>324853</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
         <v>994</v>
@@ -3777,13 +3813,13 @@
         <v>668519</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3834,13 @@
         <v>208359</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>307</v>
@@ -3813,13 +3849,13 @@
         <v>203618</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M32" s="7">
         <v>623</v>
@@ -3828,13 +3864,13 @@
         <v>411977</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3926,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +3946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE86110-4C91-46CA-ACC0-F2852A5B6F1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFB08AD-8865-4DA7-8345-B370F080FC4C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3927,7 +3963,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4330,13 +4366,13 @@
         <v>1447</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4351,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4366,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4417,13 @@
         <v>2263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4396,13 +4432,13 @@
         <v>2397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4411,13 +4447,13 @@
         <v>4660</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4468,13 @@
         <v>21608</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H12" s="7">
         <v>39</v>
@@ -4447,7 +4483,7 @@
         <v>27944</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>204</v>
@@ -4495,7 +4531,7 @@
         <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>212</v>
@@ -4597,7 +4633,7 @@
         <v>134</v>
       </c>
       <c r="I15" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>20</v>
@@ -4644,7 +4680,7 @@
         <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4659,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4668,13 +4704,13 @@
         <v>2011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4755,13 @@
         <v>23430</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4776,13 @@
         <v>112170</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H18" s="7">
         <v>134</v>
@@ -4758,10 +4794,10 @@
         <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M18" s="7">
         <v>294</v>
@@ -4770,13 +4806,13 @@
         <v>203972</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,10 +4827,10 @@
         <v>237531</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>250</v>
@@ -4863,7 +4899,7 @@
         <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>368</v>
@@ -4872,13 +4908,13 @@
         <v>252886</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -4961,13 +4997,13 @@
         <v>768</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -4976,13 +5012,13 @@
         <v>768</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +5033,13 @@
         <v>2240</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5012,13 +5048,13 @@
         <v>790</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5027,13 +5063,13 @@
         <v>3030</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5084,13 @@
         <v>37026</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -5063,13 +5099,13 @@
         <v>39166</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>123</v>
+        <v>280</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M24" s="7">
         <v>105</v>
@@ -5078,13 +5114,13 @@
         <v>76192</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>179</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5135,13 @@
         <v>89661</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>123</v>
@@ -5114,13 +5150,13 @@
         <v>87847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>252</v>
@@ -5129,13 +5165,13 @@
         <v>177508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5186,13 @@
         <v>43302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -5165,13 +5201,13 @@
         <v>37455</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>117</v>
@@ -5180,13 +5216,13 @@
         <v>80756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5290,13 @@
         <v>3457</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -5269,13 +5305,13 @@
         <v>768</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -5284,13 +5320,13 @@
         <v>4225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5341,13 @@
         <v>15269</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -5320,13 +5356,13 @@
         <v>15852</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -5335,13 +5371,13 @@
         <v>31120</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5392,13 @@
         <v>170804</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H30" s="7">
         <v>228</v>
@@ -5371,13 +5407,13 @@
         <v>158912</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="M30" s="7">
         <v>468</v>
@@ -5386,13 +5422,13 @@
         <v>329716</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>314</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5443,13 @@
         <v>370751</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H31" s="7">
         <v>505</v>
@@ -5422,13 +5458,13 @@
         <v>353631</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M31" s="7">
         <v>1033</v>
@@ -5437,13 +5473,13 @@
         <v>724382</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5494,13 @@
         <v>189565</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H32" s="7">
         <v>265</v>
@@ -5473,13 +5509,13 @@
         <v>180008</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M32" s="7">
         <v>538</v>
@@ -5488,13 +5524,13 @@
         <v>369573</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5586,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +5606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8285A268-0C78-43CB-A73D-1962E3EE6324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643A1734-4D64-4FCD-81B0-1DB95709A80B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5587,7 +5623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5972,7 +6008,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5987,7 +6023,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6002,7 +6038,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6053,13 @@
         <v>2020</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -6032,13 +6068,13 @@
         <v>2205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -6047,13 +6083,13 @@
         <v>4225</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6104,13 @@
         <v>10332</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -6083,13 +6119,13 @@
         <v>9803</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>30</v>
@@ -6098,13 +6134,13 @@
         <v>20136</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6155,13 @@
         <v>24314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -6134,13 +6170,13 @@
         <v>18627</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -6149,13 +6185,13 @@
         <v>42942</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6206,13 @@
         <v>31947</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -6185,13 +6221,13 @@
         <v>28744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -6200,13 +6236,13 @@
         <v>60691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6310,13 @@
         <v>1585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -6289,13 +6325,13 @@
         <v>1545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -6304,13 +6340,13 @@
         <v>3130</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6361,13 @@
         <v>9790</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6340,13 +6376,13 @@
         <v>8576</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -6355,13 +6391,13 @@
         <v>18367</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6412,13 @@
         <v>55192</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -6391,13 +6427,13 @@
         <v>43682</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M18" s="7">
         <v>144</v>
@@ -6406,13 +6442,13 @@
         <v>98874</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6463,13 @@
         <v>181077</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>261</v>
@@ -6442,13 +6478,13 @@
         <v>170833</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>520</v>
@@ -6457,13 +6493,13 @@
         <v>351910</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6514,13 @@
         <v>238916</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>367</v>
@@ -6493,13 +6529,13 @@
         <v>244357</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>706</v>
@@ -6508,13 +6544,13 @@
         <v>483273</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,7 +6624,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6603,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6633,13 +6669,13 @@
         <v>2103</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -6648,13 +6684,13 @@
         <v>1073</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6663,13 +6699,13 @@
         <v>3176</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>69</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>76</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6720,13 @@
         <v>23564</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>344</v>
+        <v>418</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -6699,13 +6735,13 @@
         <v>22762</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -6714,13 +6750,13 @@
         <v>46326</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6771,13 @@
         <v>68644</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -6750,13 +6786,13 @@
         <v>74051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>209</v>
@@ -6765,13 +6801,13 @@
         <v>142695</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6822,13 @@
         <v>92538</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -6801,13 +6837,13 @@
         <v>73517</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>254</v>
       </c>
       <c r="M26" s="7">
         <v>245</v>
@@ -6816,13 +6852,13 @@
         <v>166054</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6926,13 @@
         <v>1585</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>437</v>
+        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6905,13 +6941,13 @@
         <v>1545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>264</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6920,13 +6956,13 @@
         <v>3130</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6977,13 @@
         <v>13914</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>236</v>
+        <v>448</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -6956,13 +6992,13 @@
         <v>11854</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>150</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -6971,13 +7007,13 @@
         <v>25767</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>240</v>
+        <v>451</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>108</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7028,13 @@
         <v>89089</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>116</v>
@@ -7007,13 +7043,13 @@
         <v>76247</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>241</v>
@@ -7022,13 +7058,13 @@
         <v>165336</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7079,13 @@
         <v>274036</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>398</v>
@@ -7058,13 +7094,13 @@
         <v>263510</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M31" s="7">
         <v>793</v>
@@ -7073,13 +7109,13 @@
         <v>537546</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7130,13 @@
         <v>363401</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>520</v>
@@ -7109,13 +7145,13 @@
         <v>346618</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="M32" s="7">
         <v>1039</v>
@@ -7124,13 +7160,13 @@
         <v>710018</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,7 +7222,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7206,7 +7242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A996B15-66CC-48AF-B58A-5CF7A1EEC22D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1506B5-4D38-478E-B0CB-5DC4B085DB1D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7223,7 +7259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7632,7 +7668,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7647,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7662,7 +7698,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7713,13 @@
         <v>4302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>483</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -7692,13 +7728,13 @@
         <v>3555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -7707,13 +7743,13 @@
         <v>7856</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>489</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7764,13 @@
         <v>12358</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -7743,13 +7779,13 @@
         <v>10462</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -7758,13 +7794,13 @@
         <v>22820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,13 +7815,13 @@
         <v>23040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -7794,13 +7830,13 @@
         <v>19786</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -7809,13 +7845,13 @@
         <v>42825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,13 +7866,13 @@
         <v>19057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -7845,13 +7881,13 @@
         <v>17400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -7860,13 +7896,13 @@
         <v>36458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7949,13 +7985,13 @@
         <v>993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7964,13 +8000,13 @@
         <v>993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,13 +8021,13 @@
         <v>7885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>509</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>481</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -8000,13 +8036,13 @@
         <v>10491</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>520</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -8015,13 +8051,13 @@
         <v>18376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>524</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8072,13 @@
         <v>106725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>351</v>
+        <v>525</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="H18" s="7">
         <v>132</v>
@@ -8051,13 +8087,13 @@
         <v>86405</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>529</v>
       </c>
       <c r="M18" s="7">
         <v>269</v>
@@ -8066,13 +8102,13 @@
         <v>193130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8123,13 @@
         <v>231284</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -8102,13 +8138,13 @@
         <v>202398</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>599</v>
@@ -8117,13 +8153,13 @@
         <v>433683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8174,13 @@
         <v>146469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -8153,13 +8189,13 @@
         <v>149681</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>532</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>403</v>
@@ -8168,13 +8204,13 @@
         <v>296151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>534</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,7 +8284,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>536</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8263,7 +8299,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8293,13 +8329,13 @@
         <v>5065</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -8308,13 +8344,13 @@
         <v>2635</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>440</v>
+        <v>552</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -8323,13 +8359,13 @@
         <v>7700</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>543</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8380,13 @@
         <v>37257</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>277</v>
+        <v>558</v>
       </c>
       <c r="H24" s="7">
         <v>62</v>
@@ -8359,13 +8395,13 @@
         <v>37815</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>247</v>
+        <v>560</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>113</v>
@@ -8374,13 +8410,13 @@
         <v>75072</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>550</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,13 +8431,13 @@
         <v>71682</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="H25" s="7">
         <v>86</v>
@@ -8410,13 +8446,13 @@
         <v>57765</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>555</v>
+        <v>371</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -8425,13 +8461,13 @@
         <v>129447</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8446,13 +8482,13 @@
         <v>60579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>572</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -8461,13 +8497,13 @@
         <v>53155</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M26" s="7">
         <v>163</v>
@@ -8479,10 +8515,10 @@
         <v>56</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,7 +8592,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8571,7 +8607,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -8580,13 +8616,13 @@
         <v>993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8601,13 +8637,13 @@
         <v>17252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>509</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -8616,13 +8652,13 @@
         <v>16681</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -8631,13 +8667,13 @@
         <v>33933</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>586</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8652,13 +8688,13 @@
         <v>156340</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="H30" s="7">
         <v>209</v>
@@ -8667,13 +8703,13 @@
         <v>134682</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="M30" s="7">
         <v>413</v>
@@ -8682,13 +8718,13 @@
         <v>291022</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8703,13 +8739,13 @@
         <v>326007</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="H31" s="7">
         <v>404</v>
@@ -8718,13 +8754,13 @@
         <v>279949</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>526</v>
+        <v>323</v>
       </c>
       <c r="M31" s="7">
         <v>843</v>
@@ -8733,13 +8769,13 @@
         <v>605955</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,13 +8790,13 @@
         <v>226105</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>592</v>
+        <v>496</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>48</v>
+        <v>606</v>
       </c>
       <c r="H32" s="7">
         <v>308</v>
@@ -8769,13 +8805,13 @@
         <v>221408</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="M32" s="7">
         <v>618</v>
@@ -8784,13 +8820,13 @@
         <v>447513</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>598</v>
+        <v>182</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,7 +8882,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
